--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5870860000000001</v>
+        <v>0.442642</v>
       </c>
       <c r="H2">
-        <v>1.761258</v>
+        <v>1.327926</v>
       </c>
       <c r="I2">
-        <v>0.247191121622953</v>
+        <v>0.202521224736052</v>
       </c>
       <c r="J2">
-        <v>0.2471911216229531</v>
+        <v>0.202521224736052</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +561,16 @@
         <v>0.8154076983085706</v>
       </c>
       <c r="Q2">
-        <v>0.07200120551666668</v>
+        <v>0.05428635261666667</v>
       </c>
       <c r="R2">
-        <v>0.6480108496500001</v>
+        <v>0.4885771735500001</v>
       </c>
       <c r="S2">
-        <v>0.2015615435248861</v>
+        <v>0.1651373657206569</v>
       </c>
       <c r="T2">
-        <v>0.2015615435248861</v>
+        <v>0.1651373657206569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5870860000000001</v>
+        <v>0.442642</v>
       </c>
       <c r="H3">
-        <v>1.761258</v>
+        <v>1.327926</v>
       </c>
       <c r="I3">
-        <v>0.247191121622953</v>
+        <v>0.202521224736052</v>
       </c>
       <c r="J3">
-        <v>0.2471911216229531</v>
+        <v>0.202521224736052</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02776366666666666</v>
+        <v>0.02776366666666667</v>
       </c>
       <c r="N3">
-        <v>0.08329099999999999</v>
+        <v>0.083291</v>
       </c>
       <c r="O3">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="P3">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="Q3">
-        <v>0.01629966000866667</v>
+        <v>0.01228936494066667</v>
       </c>
       <c r="R3">
-        <v>0.146696940078</v>
+        <v>0.110604284466</v>
       </c>
       <c r="S3">
-        <v>0.04562957809806695</v>
+        <v>0.03738385901539508</v>
       </c>
       <c r="T3">
-        <v>0.04562957809806695</v>
+        <v>0.03738385901539508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +640,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.442642</v>
+        <v>1.743015333333333</v>
       </c>
       <c r="H4">
-        <v>1.327926</v>
+        <v>5.229046</v>
       </c>
       <c r="I4">
-        <v>0.1863733293885856</v>
+        <v>0.7974787752639481</v>
       </c>
       <c r="J4">
-        <v>0.1863733293885856</v>
+        <v>0.7974787752639481</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,16 +685,16 @@
         <v>0.8154076983085706</v>
       </c>
       <c r="Q4">
-        <v>0.05428635261666667</v>
+        <v>0.2137663055055556</v>
       </c>
       <c r="R4">
-        <v>0.4885771735500001</v>
+        <v>1.92389674955</v>
       </c>
       <c r="S4">
-        <v>0.1519702475428517</v>
+        <v>0.6502703325879138</v>
       </c>
       <c r="T4">
-        <v>0.1519702475428517</v>
+        <v>0.6502703325879138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +702,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.442642</v>
+        <v>1.743015333333333</v>
       </c>
       <c r="H5">
-        <v>1.327926</v>
+        <v>5.229046</v>
       </c>
       <c r="I5">
-        <v>0.1863733293885856</v>
+        <v>0.7974787752639481</v>
       </c>
       <c r="J5">
-        <v>0.1863733293885856</v>
+        <v>0.7974787752639481</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,152 +735,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02776366666666666</v>
+        <v>0.02776366666666667</v>
       </c>
       <c r="N5">
-        <v>0.08329099999999999</v>
+        <v>0.083291</v>
       </c>
       <c r="O5">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="P5">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="Q5">
-        <v>0.01228936494066666</v>
+        <v>0.04839249670955556</v>
       </c>
       <c r="R5">
-        <v>0.110604284466</v>
+        <v>0.4355324703860001</v>
       </c>
       <c r="S5">
-        <v>0.03440308184573393</v>
+        <v>0.1472084426760343</v>
       </c>
       <c r="T5">
-        <v>0.03440308184573394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.345300666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.035902</v>
-      </c>
-      <c r="I6">
-        <v>0.5664355489884613</v>
-      </c>
-      <c r="J6">
-        <v>0.5664355489884613</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1226416666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.367925</v>
-      </c>
-      <c r="O6">
-        <v>0.8154076983085706</v>
-      </c>
-      <c r="P6">
-        <v>0.8154076983085706</v>
-      </c>
-      <c r="Q6">
-        <v>0.1649899159277778</v>
-      </c>
-      <c r="R6">
-        <v>1.48490924335</v>
-      </c>
-      <c r="S6">
-        <v>0.4618759072408328</v>
-      </c>
-      <c r="T6">
-        <v>0.4618759072408328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.345300666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.035902</v>
-      </c>
-      <c r="I7">
-        <v>0.5664355489884613</v>
-      </c>
-      <c r="J7">
-        <v>0.5664355489884613</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02776366666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.08329099999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1845923016914293</v>
-      </c>
-      <c r="P7">
-        <v>0.1845923016914293</v>
-      </c>
-      <c r="Q7">
-        <v>0.03735047927577777</v>
-      </c>
-      <c r="R7">
-        <v>0.336154313482</v>
-      </c>
-      <c r="S7">
-        <v>0.1045596417476285</v>
-      </c>
-      <c r="T7">
-        <v>0.1045596417476285</v>
+        <v>0.1472084426760343</v>
       </c>
     </row>
   </sheetData>
